--- a/pred_ohlcv/54_21/2019-10-30 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 EOS ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>11558.61498702</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6219.793887019999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6981.654387019998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6649.686587019998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6851.354887019998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7058.779487019999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>7058.779487019999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4312.291987019998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>7999.870687019999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5176.318087019999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4733.965787019999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6642.800887019999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6542.800887019999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6454.032887019999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8179.441087019999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>28740.01315389001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13533.01555389001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5734.338553890009</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>10344.39025389001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>41387.16028853001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>19930.02949554001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>7291.262493920009</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7318.628393920009</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>14161.20199392001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>33233.27050831001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>27970.27290831001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12582.87415274001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>31266.30904569001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>31244.89954866</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>30938.49974866</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>34097.79684866</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>29455.73154866</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>27918.88994866</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>26292.66344866</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>21914.04570563</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>19451.85050563</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>23077.68510563</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>22177.69398238</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29568.51398237999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>46990.35839222</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>77368.43859221999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>82164.96219221999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>80038.99569221999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>72165.08629221999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>72003.23749221998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>71824.81599221998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>72164.41719221999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>68221.50499221998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>67176.22269221998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>126010.15939222</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>113615.34529222</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>117232.61299222</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>106510.91599222</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>105817.35709222</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>105990.38019222</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>112875.10299222</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>113891.06259222</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>114274.83469222</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>112881.27049222</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>112432.51859222</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-87495.16079410996</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-87495.16079410996</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-83032.86949410997</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-80927.26799410996</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-80927.26799410996</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-80927.26799410996</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-77444.59539410996</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-78199.69539410996</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-81349.25730637996</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-81307.68560637996</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-81418.80460637997</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-81391.70870637997</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-81364.90820637997</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-80061.22510637998</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-74092.08030637998</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-76001.27120637998</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-76147.70670637999</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-80057.70670637999</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-80057.70670637999</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-81472.29160637999</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-81898.72960637999</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-84971.84460637999</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-85388.55830637999</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-85388.55830637999</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-85132.08228688998</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-85132.08228688998</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-85132.08228688998</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-88069.38098688998</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-88069.38098688998</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-88069.38098688998</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-86969.62658688998</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-87158.63638688998</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-89755.72088688998</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-91928.51918688997</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-91904.11468688997</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-91904.11468688997</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-91893.23008688996</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-92014.43658688996</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-95344.72628688996</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-95580.31468688995</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-95390.61328688994</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-100029.8294868899</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-104231.4033868899</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-112073.4722868899</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-110297.6107962199</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-110239.7531467299</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-106199.8876467299</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-103092.1761467299</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-103092.1761467299</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-103235.9421467299</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-103170.8219467299</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-104213.2633467299</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-104213.2633467299</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-102885.4222467299</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-102844.7329467299</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-83774.69034672993</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-81967.45074672993</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-84249.11924672993</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-80348.11924672993</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-80657.43924672993</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-81989.52534672993</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-81989.52534672993</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-80272.90854672994</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-88714.25894672994</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-90830.42464672994</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-90829.42464672994</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-92480.77384672994</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-96861.67534672993</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-98524.46374672993</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-107840.1539467299</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-102812.7805467299</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-102812.7805467299</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-102612.7805467299</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-102512.6134467299</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-102511.6235467299</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-102553.6474467299</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-101919.5164467299</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-101917.5164467299</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-102446.4890467299</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-102355.5873467299</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-103201.4183467299</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-103127.1827467299</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-103102.8230467299</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-103097.3363467299</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-103284.9837467299</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-95383.47054672994</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-95383.47054672994</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-91341.93044672994</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-93242.40884672993</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-91851.14724672993</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-91937.74554672993</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-91937.74554672993</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-92739.93624672994</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-92237.12304672993</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-94864.40514672993</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-94790.71634672993</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-93191.09264672993</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-93200.49084672992</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-102390.2617467299</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-103923.2617467299</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-99387.63994672993</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-101055.7760467299</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-101055.7760467299</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-101055.7760467299</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-101055.7760467299</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-114462.6500467299</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-116288.1350467299</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-110940.7512467299</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-92105.85294672994</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-92456.37614672993</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-83598.23874672994</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-83816.21314672995</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-85602.43444672995</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-84518.75974672996</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-84518.75974672996</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-85629.57854672996</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-92347.77564672996</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-93404.75964672996</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-93250.91154672996</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-82033.49924672996</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-82032.49899005996</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-80204.55229005996</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-82020.12909005996</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-82135.07779005995</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-77894.44059005995</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-77594.66769005996</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-88685.35809005992</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-80819.14889005992</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-80819.14889005992</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-87417.46689005992</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-85002.66449005992</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-85058.97449005992</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-85022.18039005992</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-79443.18439005992</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-80405.12919005992</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-78339.83209005992</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-78663.25279005992</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-78985.59649005992</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-78949.64669005992</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-79243.33229005992</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-79289.97719005992</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-80544.60749005992</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-80417.12939005993</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-81051.15029005993</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-81051.15029005993</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-80582.93349005994</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-80457.31029005993</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-80579.04169005994</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-124093.4494521299</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-124592.1994521299</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-124592.1994521299</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-124592.1994521299</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-121057.6245521299</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-121057.6245521299</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-121057.6245521299</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-124586.3600521299</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-124558.6726521299</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-123784.1243521299</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-123704.5792521299</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-123961.5792521299</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-123819.2792521299</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-123875.1496521299</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-123875.1496521299</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-123943.5695521299</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-123943.5695521299</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-116925.9575521299</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-115927.1711521299</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-113022.7306521299</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-113315.4420521299</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-113281.7913521299</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-107964.1850521299</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-113718.98105213</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-113664.98205213</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-113561.1142521299</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-115909.8682521299</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-115909.8682521299</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-115909.8682521299</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-115909.8682521299</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-112342.61645213</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-114164.49735213</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-114164.49735213</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-114163.49735213</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-114283.68525213</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-114293.88525213</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-115627.63185213</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-162793.62545213</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-180691.5113787299</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-175834.5689787299</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-167744.66117873</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-151383.20997873</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-160033.84697873</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-184913.02815404</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-184885.49825404</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-184389.05555404</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-182979.06645404</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-177752.26235404</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-177393.04445404</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-177393.04445404</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-178141.53585404</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-178190.55715404</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-177759.68132328</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-182508.32752328</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-182428.32752328</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-182462.87082328</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-182216.28892328</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-182644.45762328</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-182574.79672328</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-177734.31042328</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-179362.47902328</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-179636.68552328</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-179820.24702328</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-179887.68152328</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-179893.98672328</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-178621.6653232801</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-178620.4540232801</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-182822.7727232801</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-181973.0835232801</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-179953.4670232801</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-178590.9334232801</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-164756.4386232801</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-172720.4123376501</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-172872.0523376502</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-173240.5287376502</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-174733.9810376502</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-174557.1232469702</v>
       </c>
       <c r="H1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-177416.8845469702</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-177786.5375469702</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-179054.2951469702</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-176323.0421469702</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-176405.2410469702</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 EOS ohlcv.xlsx
@@ -3512,7 +3512,7 @@
         <v>28740.01315389001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13533.01555389001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5734.338553890009</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>10344.39025389001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>41387.16028853001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>19930.02949554001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>7291.262493920009</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7318.628393920009</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>14161.20199392001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>33233.27050831001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>27970.27290831001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12582.87415274001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>31266.30904569001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>31244.89954866</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>30938.49974866</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>34097.79684866</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>29455.73154866</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>27918.88994866</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>26292.66344866</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>21914.04570563</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>19451.85050563</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>23077.68510563</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>22177.69398238</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29568.51398237999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>19212.86005075999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>49386.11049548</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>62998.70609222</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>60981.56409222</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>46990.35839222</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>51870.11419222</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>77368.43859221999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>82164.96219221999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>80038.99569221999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>72165.08629221999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>72003.23749221998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>71824.81599221998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>72164.41719221999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>72164.41719221999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>68221.50499221998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>67176.22269221998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>67176.22269221998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>85361.20849221997</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>80937.37719221997</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>89912.27109221996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>98795.94079221996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>105065.24259222</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>126010.15939222</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>113615.34529222</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>117232.61299222</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>106510.91599222</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>105817.35709222</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>112875.10299222</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>113891.06259222</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>114274.83469222</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>112881.27049222</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>112432.51859222</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-151383.20997873</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-160033.84697873</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-187026.73845404</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-187026.73845404</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-184885.49825404</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-184389.05555404</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-182979.06645404</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-182849.06645404</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-177396.24745404</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-177393.04445404</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-178141.53585404</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-177920.25112328</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-179763.57112328</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-180533.92352328</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-182508.32752328</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-182428.32752328</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-182462.87082328</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-182216.28892328</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-182644.45762328</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-182574.79672328</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-177734.31042328</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-179362.47902328</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-179636.68552328</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-179820.24702328</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-179887.68152328</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-179893.98672328</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-178621.6653232801</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-178620.4540232801</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-182822.7727232801</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-181973.0835232801</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-179953.4670232801</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-178590.9334232801</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-164756.4386232801</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-164936.4207232801</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-164724.6791232801</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-164724.5520232801</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-165871.3291187101</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-161348.7741376502</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-162346.4031376501</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-162350.5231376501</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-162347.5231376501</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-162347.5231376501</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-164237.4948376501</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-168134.6041376501</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-168134.6041376501</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-167595.0018376501</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-172724.5423376501</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-172720.4123376501</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-172720.4123376501</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-172872.0523376502</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-173240.5287376502</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-174733.9810376502</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-174557.1232469702</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-177416.8845469702</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-177786.5375469702</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-179054.2951469702</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-176323.0421469702</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-176405.2410469702</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
